--- a/Experiments/Figures/heat_map/ccc_real.xlsx
+++ b/Experiments/Figures/heat_map/ccc_real.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chan/Documents/GitHub/TAPE/Experiments/Figures/heat_map/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2108851A-A2C5-6B4F-B9A4-CB7EAFF5E8AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9F018E-4985-5A42-9EFA-B0C651527247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{1BEB8FF3-4EEB-924C-8C93-DAC6D454EC36}"/>
   </bookViews>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -447,7 +445,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E1" sqref="E1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -460,10 +458,10 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
@@ -479,11 +477,11 @@
       <c r="C2">
         <v>0.46</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
+        <v>-0.24210814127315</v>
+      </c>
+      <c r="E2">
         <v>0.43</v>
-      </c>
-      <c r="E2" s="1">
-        <v>-0.24210814127315</v>
       </c>
       <c r="F2" s="1">
         <v>0.59651052760689405</v>
@@ -499,11 +497,11 @@
       <c r="C3">
         <v>0.68</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
+        <v>-0.23794763930813201</v>
+      </c>
+      <c r="E3">
         <v>0.66</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-0.23794763930813201</v>
       </c>
       <c r="F3" s="1">
         <v>0.36526552757501901</v>
@@ -514,16 +512,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.94</v>
+        <v>0.7</v>
       </c>
       <c r="C4">
         <v>0.76</v>
       </c>
-      <c r="D4">
-        <v>0.81</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D4" s="1">
         <v>-0.31188694593844601</v>
+      </c>
+      <c r="E4">
+        <v>0.42</v>
       </c>
       <c r="F4" s="1">
         <v>0.72397977035635297</v>
@@ -534,20 +532,18 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.7</v>
+        <v>0.94</v>
       </c>
       <c r="C5">
         <v>0.85</v>
       </c>
-      <c r="D5">
-        <v>0.42</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5" s="1">
         <v>0.81702090429098695</v>
       </c>
-      <c r="F5" s="1">
-        <v>-1</v>
-      </c>
+      <c r="E5">
+        <v>0.81</v>
+      </c>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
@@ -560,10 +556,10 @@
         <v>0.88</v>
       </c>
       <c r="D6">
+        <v>0.88881919532685605</v>
+      </c>
+      <c r="E6">
         <v>0.84</v>
-      </c>
-      <c r="E6">
-        <v>0.88881919532685605</v>
       </c>
       <c r="F6">
         <v>0.85746538277052897</v>
